--- a/me/5.Source-Driven-Development.xlsx
+++ b/me/5.Source-Driven-Development.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SFDX-and-Salesforce-CLI\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC670FE-6EBC-46C8-8AAD-4AF0B7F2BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919AA74-0F0A-4B8E-82E9-5E24BFABB7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source Driven Development Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="TrackChangesPullMetadatafromOrg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +25,203 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>CLISession</t>
+  </si>
+  <si>
+    <t>.sfdx</t>
+  </si>
+  <si>
+    <t>sfdx-config.json</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>project-scratch-def.json</t>
+  </si>
+  <si>
+    <t>force-app</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>applications</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t>TreeListControllerTest</t>
+  </si>
+  <si>
+    <t>TreeLocationControllerTest</t>
+  </si>
+  <si>
+    <t>flexipages</t>
+  </si>
+  <si>
+    <t>Tree_Plantation.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>layouts</t>
+  </si>
+  <si>
+    <t>lwc</t>
+  </si>
+  <si>
+    <t>newTreePlantation</t>
+  </si>
+  <si>
+    <t>newTreePlantation.html</t>
+  </si>
+  <si>
+    <t>newTreePlantation.js</t>
+  </si>
+  <si>
+    <t>newTreePlantation.js-meta.xml</t>
+  </si>
+  <si>
+    <t>treePlantationExplorer</t>
+  </si>
+  <si>
+    <t>treePlantationExplorer.html</t>
+  </si>
+  <si>
+    <t>treePlantationExplorer.js</t>
+  </si>
+  <si>
+    <t>treePlantationExplorer.js-meta.xml</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>permissionsets</t>
+  </si>
+  <si>
+    <t>TreePlantation.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>staticresources</t>
+  </si>
+  <si>
+    <t>tabs</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>package.xml</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>sample-data</t>
+  </si>
+  <si>
+    <t>City__c.json</t>
+  </si>
+  <si>
+    <t>Tree__c-Tree_Plantation__c-plan.json</t>
+  </si>
+  <si>
+    <t>Tree__cs.json</t>
+  </si>
+  <si>
+    <t>Tree_Plantation__cs.json</t>
+  </si>
+  <si>
+    <t>tree-plantation</t>
+  </si>
+  <si>
+    <t>import-plan.json</t>
+  </si>
+  <si>
+    <t>Status command help us to check components which does not exist in our sfdx project or may be does not exist in our Scratch Org</t>
+  </si>
+  <si>
+    <t>sfdx force:source:status --help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-l, --local: Track only local changes </t>
+  </si>
+  <si>
+    <t>-r, --remote: track only the Scratch Org changes</t>
+  </si>
+  <si>
+    <t>sfdx force:source:status -l</t>
+  </si>
+  <si>
+    <t>sfdx force:source:status -r</t>
+  </si>
+  <si>
+    <t>treeimages</t>
+  </si>
+  <si>
+    <t>__MACOSX</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>There are __MACOSX files but we do not need to push to Scratch Org so we can delete these folder</t>
+  </si>
+  <si>
+    <t>rm -r force-app\main\default\staticresources\treeimages\__MACOSX</t>
+  </si>
+  <si>
+    <t>run command again</t>
+  </si>
+  <si>
+    <t>Check local</t>
+  </si>
+  <si>
+    <t>Check Scratch Org</t>
+  </si>
+  <si>
+    <t>Pull to local</t>
+  </si>
+  <si>
+    <t>sfdx force:source:pull</t>
+  </si>
+  <si>
+    <t>Check again</t>
+  </si>
+  <si>
+    <t>Will delete</t>
+  </si>
+  <si>
+    <t>Track Changes and Pull Metadata from Scratch Org</t>
+  </si>
+  <si>
+    <t>Make some small changes in our Permission Set</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>Run status command again</t>
+  </si>
+  <si>
+    <t>Check status again</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +229,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -51,12 +259,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +535,1033 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>187798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FD0B78-CF2B-33B5-3A97-5C6979D579D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736146" y="11125200"/>
+          <a:ext cx="11278961" cy="5445598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>49366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E8269E-5358-E048-CD51-42206542AE9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750795" y="17783735"/>
+          <a:ext cx="11788587" cy="2458631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>89650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>33072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71462135-457E-3983-269F-D80C09A58026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="21616150"/>
+          <a:ext cx="11665323" cy="2610422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82579618-C5F5-A380-19F2-37578BC264A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6342529" y="21123088"/>
+          <a:ext cx="3272118" cy="1479177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F71E40C-BC8A-0A36-A7C1-078876A837FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9659471" y="22725529"/>
+          <a:ext cx="1792941" cy="1187824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60FBE3E-835E-4AE3-3486-F5B7D53C79B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="683559" y="18265588"/>
+          <a:ext cx="11206" cy="6387353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121648</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4E0668-6589-EAEF-86EB-60007787C53D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="24832235"/>
+          <a:ext cx="8447619" cy="1019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59460</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>162306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC6026B-4489-FE84-30F3-ECF1E96E38E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="26927735"/>
+          <a:ext cx="8419048" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>183340</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>44585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48BDA7A-3C48-4306-24A2-166D30503FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="29000823"/>
+          <a:ext cx="7971428" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574931</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>28452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE131F9B-098F-2D2D-3E9A-739E04344639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627530" y="31242000"/>
+          <a:ext cx="8419048" cy="980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB17D32-40B4-F931-0057-43FEE5B2F334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661147" y="26804471"/>
+          <a:ext cx="89647" cy="4493558"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>49023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DBDB06-079B-F150-561B-8684EA27AC35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="33281470"/>
+          <a:ext cx="11161059" cy="5629553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>51419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731A98A8-65E1-8199-96B3-431AA05C14C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="39142147"/>
+          <a:ext cx="11205882" cy="5676772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>71214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51803473-8930-B115-6A52-7E71ACB396D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728382" y="45058853"/>
+          <a:ext cx="10925736" cy="5494861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>75241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C435F0AD-7E4F-0DE7-1FC6-E5A97E03EF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="50807470"/>
+          <a:ext cx="11116235" cy="5655771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>73978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD532B0-7F2A-3F2E-2617-3557699ACBC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="56869853"/>
+          <a:ext cx="11228294" cy="5688125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F41CCEA-F703-7F81-9616-0FAEF26E6C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232647" y="56724176"/>
+          <a:ext cx="4034118" cy="3563471"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>53773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE211F1-5BD9-8636-11BD-7EC9AE75453C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="62775353"/>
+          <a:ext cx="11172264" cy="5667920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>127205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F709635-0E5C-8A1B-7AE7-9475F1719ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="69409235"/>
+          <a:ext cx="11093823" cy="1393470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134228</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>100615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306C5EE7-43E0-B626-71A5-2658E740256B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="71347853"/>
+          <a:ext cx="10914286" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>89713</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>124259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC31B50-6ACF-9A49-CB8B-10DA45EDB574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="73790735"/>
+          <a:ext cx="8438095" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68B50E6-4DF6-6A67-7A61-CD7F6B5B9D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661147" y="69308382"/>
+          <a:ext cx="44824" cy="4269442"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -494,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="Q88" sqref="Q88"/>
     </sheetView>
   </sheetViews>
@@ -503,4 +1841,7260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C000F3C-68A7-4F73-B89E-07AAC7B2F9B1}">
+  <dimension ref="A2:U387"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E396" sqref="E396"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="16"/>
+      <c r="M52" t="s">
+        <v>48</v>
+      </c>
+      <c r="N52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="16"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="16"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="16"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="19"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="9"/>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B97" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="3"/>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="5"/>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="5"/>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="5"/>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="5"/>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="20"/>
+      <c r="Q114" s="20"/>
+      <c r="R114" s="20"/>
+      <c r="S114" s="20"/>
+      <c r="T114" s="20"/>
+      <c r="U114" s="5"/>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="20"/>
+      <c r="S115" s="20"/>
+      <c r="T115" s="20"/>
+      <c r="U115" s="5"/>
+    </row>
+    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="5"/>
+    </row>
+    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="20"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="20"/>
+      <c r="Q117" s="20"/>
+      <c r="R117" s="20"/>
+      <c r="S117" s="20"/>
+      <c r="T117" s="20"/>
+      <c r="U117" s="5"/>
+    </row>
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+      <c r="Q118" s="20"/>
+      <c r="R118" s="20"/>
+      <c r="S118" s="20"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="5"/>
+    </row>
+    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="20"/>
+      <c r="O119" s="20"/>
+      <c r="P119" s="20"/>
+      <c r="Q119" s="20"/>
+      <c r="R119" s="20"/>
+      <c r="S119" s="20"/>
+      <c r="T119" s="20"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="20"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="20"/>
+      <c r="T120" s="20"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="20"/>
+      <c r="P121" s="20"/>
+      <c r="Q121" s="20"/>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20"/>
+      <c r="T121" s="20"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="20"/>
+      <c r="O124" s="20"/>
+      <c r="P124" s="20"/>
+      <c r="Q124" s="20"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+      <c r="T124" s="20"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="20"/>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="20"/>
+      <c r="R125" s="20"/>
+      <c r="S125" s="20"/>
+      <c r="T125" s="20"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+      <c r="T127" s="20"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="20"/>
+      <c r="Q128" s="20"/>
+      <c r="R128" s="20"/>
+      <c r="S128" s="20"/>
+      <c r="T128" s="20"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="20"/>
+      <c r="R129" s="20"/>
+      <c r="S129" s="20"/>
+      <c r="T129" s="20"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
+      <c r="O130" s="20"/>
+      <c r="P130" s="20"/>
+      <c r="Q130" s="20"/>
+      <c r="R130" s="20"/>
+      <c r="S130" s="20"/>
+      <c r="T130" s="20"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
+      <c r="O131" s="20"/>
+      <c r="P131" s="20"/>
+      <c r="Q131" s="20"/>
+      <c r="R131" s="20"/>
+      <c r="S131" s="20"/>
+      <c r="T131" s="20"/>
+      <c r="U131" s="5"/>
+    </row>
+    <row r="132" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
+      <c r="P132" s="20"/>
+      <c r="Q132" s="20"/>
+      <c r="R132" s="20"/>
+      <c r="S132" s="20"/>
+      <c r="T132" s="20"/>
+      <c r="U132" s="5"/>
+    </row>
+    <row r="133" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="20"/>
+      <c r="O133" s="20"/>
+      <c r="P133" s="20"/>
+      <c r="Q133" s="20"/>
+      <c r="R133" s="20"/>
+      <c r="S133" s="20"/>
+      <c r="T133" s="20"/>
+      <c r="U133" s="5"/>
+    </row>
+    <row r="134" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="20"/>
+      <c r="O134" s="20"/>
+      <c r="P134" s="20"/>
+      <c r="Q134" s="20"/>
+      <c r="R134" s="20"/>
+      <c r="S134" s="20"/>
+      <c r="T134" s="20"/>
+      <c r="U134" s="5"/>
+    </row>
+    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="20"/>
+      <c r="O135" s="20"/>
+      <c r="P135" s="20"/>
+      <c r="Q135" s="20"/>
+      <c r="R135" s="20"/>
+      <c r="S135" s="20"/>
+      <c r="T135" s="20"/>
+      <c r="U135" s="5"/>
+    </row>
+    <row r="136" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="20"/>
+      <c r="O136" s="20"/>
+      <c r="P136" s="20"/>
+      <c r="Q136" s="20"/>
+      <c r="R136" s="20"/>
+      <c r="S136" s="20"/>
+      <c r="T136" s="20"/>
+      <c r="U136" s="5"/>
+    </row>
+    <row r="137" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="20"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="20"/>
+      <c r="Q137" s="20"/>
+      <c r="R137" s="20"/>
+      <c r="S137" s="20"/>
+      <c r="T137" s="20"/>
+      <c r="U137" s="5"/>
+    </row>
+    <row r="138" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+      <c r="U138" s="9"/>
+    </row>
+    <row r="141" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B141" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="3"/>
+    </row>
+    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="20"/>
+      <c r="Q142" s="5"/>
+    </row>
+    <row r="143" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="20"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="20"/>
+      <c r="Q143" s="5"/>
+    </row>
+    <row r="144" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="5"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="5"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="5"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="5"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="20"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="20"/>
+      <c r="Q148" s="5"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="20"/>
+      <c r="O149" s="20"/>
+      <c r="P149" s="20"/>
+      <c r="Q149" s="5"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="20"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="5"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="20"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="5"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="5"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="5"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="5"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="20"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="5"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="5"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="5"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="20"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="20"/>
+      <c r="Q158" s="5"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="5"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="20"/>
+      <c r="Q160" s="5"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="5"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="20"/>
+      <c r="O162" s="20"/>
+      <c r="P162" s="20"/>
+      <c r="Q162" s="5"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="20"/>
+      <c r="O163" s="20"/>
+      <c r="P163" s="20"/>
+      <c r="Q163" s="5"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
+      <c r="O164" s="20"/>
+      <c r="P164" s="20"/>
+      <c r="Q164" s="5"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="20"/>
+      <c r="O165" s="20"/>
+      <c r="P165" s="20"/>
+      <c r="Q165" s="5"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="20"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="20"/>
+      <c r="Q166" s="5"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="20"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="20"/>
+      <c r="Q167" s="5"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="20"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="Q168" s="5"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="20"/>
+      <c r="O169" s="20"/>
+      <c r="P169" s="20"/>
+      <c r="Q169" s="5"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="20"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170" s="5"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+      <c r="Q171" s="9"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="3"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="20"/>
+      <c r="O175" s="20"/>
+      <c r="P175" s="20"/>
+      <c r="Q175" s="20"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="20"/>
+      <c r="T175" s="5"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="20"/>
+      <c r="O176" s="20"/>
+      <c r="P176" s="20"/>
+      <c r="Q176" s="20"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="20"/>
+      <c r="T176" s="5"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="20"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="20"/>
+      <c r="Q177" s="20"/>
+      <c r="R177" s="20"/>
+      <c r="S177" s="20"/>
+      <c r="T177" s="5"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="20"/>
+      <c r="O178" s="20"/>
+      <c r="P178" s="20"/>
+      <c r="Q178" s="20"/>
+      <c r="R178" s="20"/>
+      <c r="S178" s="20"/>
+      <c r="T178" s="5"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="20"/>
+      <c r="N179" s="20"/>
+      <c r="O179" s="20"/>
+      <c r="P179" s="20"/>
+      <c r="Q179" s="20"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+      <c r="T179" s="5"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="20"/>
+      <c r="N180" s="20"/>
+      <c r="O180" s="20"/>
+      <c r="P180" s="20"/>
+      <c r="Q180" s="20"/>
+      <c r="R180" s="20"/>
+      <c r="S180" s="20"/>
+      <c r="T180" s="5"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="20"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="20"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="5"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="20"/>
+      <c r="N182" s="20"/>
+      <c r="O182" s="20"/>
+      <c r="P182" s="20"/>
+      <c r="Q182" s="20"/>
+      <c r="R182" s="20"/>
+      <c r="S182" s="20"/>
+      <c r="T182" s="5"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="20"/>
+      <c r="N183" s="20"/>
+      <c r="O183" s="20"/>
+      <c r="P183" s="20"/>
+      <c r="Q183" s="20"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="20"/>
+      <c r="T183" s="5"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="20"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20"/>
+      <c r="M184" s="20"/>
+      <c r="N184" s="20"/>
+      <c r="O184" s="20"/>
+      <c r="P184" s="20"/>
+      <c r="Q184" s="20"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="20"/>
+      <c r="T184" s="5"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="20"/>
+      <c r="M185" s="20"/>
+      <c r="N185" s="20"/>
+      <c r="O185" s="20"/>
+      <c r="P185" s="20"/>
+      <c r="Q185" s="20"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="20"/>
+      <c r="T185" s="5"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="20"/>
+      <c r="K186" s="20"/>
+      <c r="L186" s="20"/>
+      <c r="M186" s="20"/>
+      <c r="N186" s="20"/>
+      <c r="O186" s="20"/>
+      <c r="P186" s="20"/>
+      <c r="Q186" s="20"/>
+      <c r="R186" s="20"/>
+      <c r="S186" s="20"/>
+      <c r="T186" s="5"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="20"/>
+      <c r="N187" s="20"/>
+      <c r="O187" s="20"/>
+      <c r="P187" s="20"/>
+      <c r="Q187" s="20"/>
+      <c r="R187" s="20"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="5"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20"/>
+      <c r="K188" s="20"/>
+      <c r="L188" s="20"/>
+      <c r="M188" s="20"/>
+      <c r="N188" s="20"/>
+      <c r="O188" s="20"/>
+      <c r="P188" s="20"/>
+      <c r="Q188" s="20"/>
+      <c r="R188" s="20"/>
+      <c r="S188" s="20"/>
+      <c r="T188" s="5"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="20"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="20"/>
+      <c r="M189" s="20"/>
+      <c r="N189" s="20"/>
+      <c r="O189" s="20"/>
+      <c r="P189" s="20"/>
+      <c r="Q189" s="20"/>
+      <c r="R189" s="20"/>
+      <c r="S189" s="20"/>
+      <c r="T189" s="5"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="20"/>
+      <c r="M190" s="20"/>
+      <c r="N190" s="20"/>
+      <c r="O190" s="20"/>
+      <c r="P190" s="20"/>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="5"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="20"/>
+      <c r="M191" s="20"/>
+      <c r="N191" s="20"/>
+      <c r="O191" s="20"/>
+      <c r="P191" s="20"/>
+      <c r="Q191" s="20"/>
+      <c r="R191" s="20"/>
+      <c r="S191" s="20"/>
+      <c r="T191" s="5"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="20"/>
+      <c r="M192" s="20"/>
+      <c r="N192" s="20"/>
+      <c r="O192" s="20"/>
+      <c r="P192" s="20"/>
+      <c r="Q192" s="20"/>
+      <c r="R192" s="20"/>
+      <c r="S192" s="20"/>
+      <c r="T192" s="5"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="20"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="20"/>
+      <c r="N193" s="20"/>
+      <c r="O193" s="20"/>
+      <c r="P193" s="20"/>
+      <c r="Q193" s="20"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="5"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="20"/>
+      <c r="N194" s="20"/>
+      <c r="O194" s="20"/>
+      <c r="P194" s="20"/>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="20"/>
+      <c r="T194" s="5"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="20"/>
+      <c r="M195" s="20"/>
+      <c r="N195" s="20"/>
+      <c r="O195" s="20"/>
+      <c r="P195" s="20"/>
+      <c r="Q195" s="20"/>
+      <c r="R195" s="20"/>
+      <c r="S195" s="20"/>
+      <c r="T195" s="5"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="20"/>
+      <c r="N196" s="20"/>
+      <c r="O196" s="20"/>
+      <c r="P196" s="20"/>
+      <c r="Q196" s="20"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="20"/>
+      <c r="T196" s="5"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="20"/>
+      <c r="M197" s="20"/>
+      <c r="N197" s="20"/>
+      <c r="O197" s="20"/>
+      <c r="P197" s="20"/>
+      <c r="Q197" s="20"/>
+      <c r="R197" s="20"/>
+      <c r="S197" s="20"/>
+      <c r="T197" s="5"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
+      <c r="L198" s="20"/>
+      <c r="M198" s="20"/>
+      <c r="N198" s="20"/>
+      <c r="O198" s="20"/>
+      <c r="P198" s="20"/>
+      <c r="Q198" s="20"/>
+      <c r="R198" s="20"/>
+      <c r="S198" s="20"/>
+      <c r="T198" s="5"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="20"/>
+      <c r="M199" s="20"/>
+      <c r="N199" s="20"/>
+      <c r="O199" s="20"/>
+      <c r="P199" s="20"/>
+      <c r="Q199" s="20"/>
+      <c r="R199" s="20"/>
+      <c r="S199" s="20"/>
+      <c r="T199" s="5"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="20"/>
+      <c r="K200" s="20"/>
+      <c r="L200" s="20"/>
+      <c r="M200" s="20"/>
+      <c r="N200" s="20"/>
+      <c r="O200" s="20"/>
+      <c r="P200" s="20"/>
+      <c r="Q200" s="20"/>
+      <c r="R200" s="20"/>
+      <c r="S200" s="20"/>
+      <c r="T200" s="5"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="20"/>
+      <c r="K201" s="20"/>
+      <c r="L201" s="20"/>
+      <c r="M201" s="20"/>
+      <c r="N201" s="20"/>
+      <c r="O201" s="20"/>
+      <c r="P201" s="20"/>
+      <c r="Q201" s="20"/>
+      <c r="R201" s="20"/>
+      <c r="S201" s="20"/>
+      <c r="T201" s="5"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="20"/>
+      <c r="K202" s="20"/>
+      <c r="L202" s="20"/>
+      <c r="M202" s="20"/>
+      <c r="N202" s="20"/>
+      <c r="O202" s="20"/>
+      <c r="P202" s="20"/>
+      <c r="Q202" s="20"/>
+      <c r="R202" s="20"/>
+      <c r="S202" s="20"/>
+      <c r="T202" s="5"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="20"/>
+      <c r="K203" s="20"/>
+      <c r="L203" s="20"/>
+      <c r="M203" s="20"/>
+      <c r="N203" s="20"/>
+      <c r="O203" s="20"/>
+      <c r="P203" s="20"/>
+      <c r="Q203" s="20"/>
+      <c r="R203" s="20"/>
+      <c r="S203" s="20"/>
+      <c r="T203" s="5"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20"/>
+      <c r="K204" s="20"/>
+      <c r="L204" s="20"/>
+      <c r="M204" s="20"/>
+      <c r="N204" s="20"/>
+      <c r="O204" s="20"/>
+      <c r="P204" s="20"/>
+      <c r="Q204" s="20"/>
+      <c r="R204" s="20"/>
+      <c r="S204" s="20"/>
+      <c r="T204" s="5"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="20"/>
+      <c r="K205" s="20"/>
+      <c r="L205" s="20"/>
+      <c r="M205" s="20"/>
+      <c r="N205" s="20"/>
+      <c r="O205" s="20"/>
+      <c r="P205" s="20"/>
+      <c r="Q205" s="20"/>
+      <c r="R205" s="20"/>
+      <c r="S205" s="20"/>
+      <c r="T205" s="5"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="20"/>
+      <c r="M206" s="20"/>
+      <c r="N206" s="20"/>
+      <c r="O206" s="20"/>
+      <c r="P206" s="20"/>
+      <c r="Q206" s="20"/>
+      <c r="R206" s="20"/>
+      <c r="S206" s="20"/>
+      <c r="T206" s="5"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20"/>
+      <c r="K207" s="20"/>
+      <c r="L207" s="20"/>
+      <c r="M207" s="20"/>
+      <c r="N207" s="20"/>
+      <c r="O207" s="20"/>
+      <c r="P207" s="20"/>
+      <c r="Q207" s="20"/>
+      <c r="R207" s="20"/>
+      <c r="S207" s="20"/>
+      <c r="T207" s="5"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20"/>
+      <c r="K208" s="20"/>
+      <c r="L208" s="20"/>
+      <c r="M208" s="20"/>
+      <c r="N208" s="20"/>
+      <c r="O208" s="20"/>
+      <c r="P208" s="20"/>
+      <c r="Q208" s="20"/>
+      <c r="R208" s="20"/>
+      <c r="S208" s="20"/>
+      <c r="T208" s="5"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="20"/>
+      <c r="M209" s="20"/>
+      <c r="N209" s="20"/>
+      <c r="O209" s="20"/>
+      <c r="P209" s="20"/>
+      <c r="Q209" s="20"/>
+      <c r="R209" s="20"/>
+      <c r="S209" s="20"/>
+      <c r="T209" s="5"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20"/>
+      <c r="K210" s="20"/>
+      <c r="L210" s="20"/>
+      <c r="M210" s="20"/>
+      <c r="N210" s="20"/>
+      <c r="O210" s="20"/>
+      <c r="P210" s="20"/>
+      <c r="Q210" s="20"/>
+      <c r="R210" s="20"/>
+      <c r="S210" s="20"/>
+      <c r="T210" s="5"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="20"/>
+      <c r="K211" s="20"/>
+      <c r="L211" s="20"/>
+      <c r="M211" s="20"/>
+      <c r="N211" s="20"/>
+      <c r="O211" s="20"/>
+      <c r="P211" s="20"/>
+      <c r="Q211" s="20"/>
+      <c r="R211" s="20"/>
+      <c r="S211" s="20"/>
+      <c r="T211" s="5"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="20"/>
+      <c r="K212" s="20"/>
+      <c r="L212" s="20"/>
+      <c r="M212" s="20"/>
+      <c r="N212" s="20"/>
+      <c r="O212" s="20"/>
+      <c r="P212" s="20"/>
+      <c r="Q212" s="20"/>
+      <c r="R212" s="20"/>
+      <c r="S212" s="20"/>
+      <c r="T212" s="5"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="20"/>
+      <c r="K213" s="20"/>
+      <c r="L213" s="20"/>
+      <c r="M213" s="20"/>
+      <c r="N213" s="20"/>
+      <c r="O213" s="20"/>
+      <c r="P213" s="20"/>
+      <c r="Q213" s="20"/>
+      <c r="R213" s="20"/>
+      <c r="S213" s="20"/>
+      <c r="T213" s="5"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="20"/>
+      <c r="K214" s="20"/>
+      <c r="L214" s="20"/>
+      <c r="M214" s="20"/>
+      <c r="N214" s="20"/>
+      <c r="O214" s="20"/>
+      <c r="P214" s="20"/>
+      <c r="Q214" s="20"/>
+      <c r="R214" s="20"/>
+      <c r="S214" s="20"/>
+      <c r="T214" s="5"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="20"/>
+      <c r="K215" s="20"/>
+      <c r="L215" s="20"/>
+      <c r="M215" s="20"/>
+      <c r="N215" s="20"/>
+      <c r="O215" s="20"/>
+      <c r="P215" s="20"/>
+      <c r="Q215" s="20"/>
+      <c r="R215" s="20"/>
+      <c r="S215" s="20"/>
+      <c r="T215" s="5"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="20"/>
+      <c r="K216" s="20"/>
+      <c r="L216" s="20"/>
+      <c r="M216" s="20"/>
+      <c r="N216" s="20"/>
+      <c r="O216" s="20"/>
+      <c r="P216" s="20"/>
+      <c r="Q216" s="20"/>
+      <c r="R216" s="20"/>
+      <c r="S216" s="20"/>
+      <c r="T216" s="5"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="20"/>
+      <c r="K217" s="20"/>
+      <c r="L217" s="20"/>
+      <c r="M217" s="20"/>
+      <c r="N217" s="20"/>
+      <c r="O217" s="20"/>
+      <c r="P217" s="20"/>
+      <c r="Q217" s="20"/>
+      <c r="R217" s="20"/>
+      <c r="S217" s="20"/>
+      <c r="T217" s="5"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="20"/>
+      <c r="K218" s="20"/>
+      <c r="L218" s="20"/>
+      <c r="M218" s="20"/>
+      <c r="N218" s="20"/>
+      <c r="O218" s="20"/>
+      <c r="P218" s="20"/>
+      <c r="Q218" s="20"/>
+      <c r="R218" s="20"/>
+      <c r="S218" s="20"/>
+      <c r="T218" s="5"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="20"/>
+      <c r="K219" s="20"/>
+      <c r="L219" s="20"/>
+      <c r="M219" s="20"/>
+      <c r="N219" s="20"/>
+      <c r="O219" s="20"/>
+      <c r="P219" s="20"/>
+      <c r="Q219" s="20"/>
+      <c r="R219" s="20"/>
+      <c r="S219" s="20"/>
+      <c r="T219" s="5"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="20"/>
+      <c r="K220" s="20"/>
+      <c r="L220" s="20"/>
+      <c r="M220" s="20"/>
+      <c r="N220" s="20"/>
+      <c r="O220" s="20"/>
+      <c r="P220" s="20"/>
+      <c r="Q220" s="20"/>
+      <c r="R220" s="20"/>
+      <c r="S220" s="20"/>
+      <c r="T220" s="5"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="20"/>
+      <c r="K221" s="20"/>
+      <c r="L221" s="20"/>
+      <c r="M221" s="20"/>
+      <c r="N221" s="20"/>
+      <c r="O221" s="20"/>
+      <c r="P221" s="20"/>
+      <c r="Q221" s="20"/>
+      <c r="R221" s="20"/>
+      <c r="S221" s="20"/>
+      <c r="T221" s="5"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="20"/>
+      <c r="K222" s="20"/>
+      <c r="L222" s="20"/>
+      <c r="M222" s="20"/>
+      <c r="N222" s="20"/>
+      <c r="O222" s="20"/>
+      <c r="P222" s="20"/>
+      <c r="Q222" s="20"/>
+      <c r="R222" s="20"/>
+      <c r="S222" s="20"/>
+      <c r="T222" s="5"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20"/>
+      <c r="K223" s="20"/>
+      <c r="L223" s="20"/>
+      <c r="M223" s="20"/>
+      <c r="N223" s="20"/>
+      <c r="O223" s="20"/>
+      <c r="P223" s="20"/>
+      <c r="Q223" s="20"/>
+      <c r="R223" s="20"/>
+      <c r="S223" s="20"/>
+      <c r="T223" s="5"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="20"/>
+      <c r="K224" s="20"/>
+      <c r="L224" s="20"/>
+      <c r="M224" s="20"/>
+      <c r="N224" s="20"/>
+      <c r="O224" s="20"/>
+      <c r="P224" s="20"/>
+      <c r="Q224" s="20"/>
+      <c r="R224" s="20"/>
+      <c r="S224" s="20"/>
+      <c r="T224" s="5"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="20"/>
+      <c r="K225" s="20"/>
+      <c r="L225" s="20"/>
+      <c r="M225" s="20"/>
+      <c r="N225" s="20"/>
+      <c r="O225" s="20"/>
+      <c r="P225" s="20"/>
+      <c r="Q225" s="20"/>
+      <c r="R225" s="20"/>
+      <c r="S225" s="20"/>
+      <c r="T225" s="5"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="20"/>
+      <c r="K226" s="20"/>
+      <c r="L226" s="20"/>
+      <c r="M226" s="20"/>
+      <c r="N226" s="20"/>
+      <c r="O226" s="20"/>
+      <c r="P226" s="20"/>
+      <c r="Q226" s="20"/>
+      <c r="R226" s="20"/>
+      <c r="S226" s="20"/>
+      <c r="T226" s="5"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="20"/>
+      <c r="K227" s="20"/>
+      <c r="L227" s="20"/>
+      <c r="M227" s="20"/>
+      <c r="N227" s="20"/>
+      <c r="O227" s="20"/>
+      <c r="P227" s="20"/>
+      <c r="Q227" s="20"/>
+      <c r="R227" s="20"/>
+      <c r="S227" s="20"/>
+      <c r="T227" s="5"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="20"/>
+      <c r="K228" s="20"/>
+      <c r="L228" s="20"/>
+      <c r="M228" s="20"/>
+      <c r="N228" s="20"/>
+      <c r="O228" s="20"/>
+      <c r="P228" s="20"/>
+      <c r="Q228" s="20"/>
+      <c r="R228" s="20"/>
+      <c r="S228" s="20"/>
+      <c r="T228" s="5"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="20"/>
+      <c r="K229" s="20"/>
+      <c r="L229" s="20"/>
+      <c r="M229" s="20"/>
+      <c r="N229" s="20"/>
+      <c r="O229" s="20"/>
+      <c r="P229" s="20"/>
+      <c r="Q229" s="20"/>
+      <c r="R229" s="20"/>
+      <c r="S229" s="20"/>
+      <c r="T229" s="5"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="20"/>
+      <c r="K230" s="20"/>
+      <c r="L230" s="20"/>
+      <c r="M230" s="20"/>
+      <c r="N230" s="20"/>
+      <c r="O230" s="20"/>
+      <c r="P230" s="20"/>
+      <c r="Q230" s="20"/>
+      <c r="R230" s="20"/>
+      <c r="S230" s="20"/>
+      <c r="T230" s="5"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="20"/>
+      <c r="K231" s="20"/>
+      <c r="L231" s="20"/>
+      <c r="M231" s="20"/>
+      <c r="N231" s="20"/>
+      <c r="O231" s="20"/>
+      <c r="P231" s="20"/>
+      <c r="Q231" s="20"/>
+      <c r="R231" s="20"/>
+      <c r="S231" s="20"/>
+      <c r="T231" s="5"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="20"/>
+      <c r="K232" s="20"/>
+      <c r="L232" s="20"/>
+      <c r="M232" s="20"/>
+      <c r="N232" s="20"/>
+      <c r="O232" s="20"/>
+      <c r="P232" s="20"/>
+      <c r="Q232" s="20"/>
+      <c r="R232" s="20"/>
+      <c r="S232" s="20"/>
+      <c r="T232" s="5"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="20"/>
+      <c r="N233" s="20"/>
+      <c r="O233" s="20"/>
+      <c r="P233" s="20"/>
+      <c r="Q233" s="20"/>
+      <c r="R233" s="20"/>
+      <c r="S233" s="20"/>
+      <c r="T233" s="5"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="20"/>
+      <c r="K234" s="20"/>
+      <c r="L234" s="20"/>
+      <c r="M234" s="20"/>
+      <c r="N234" s="20"/>
+      <c r="O234" s="20"/>
+      <c r="P234" s="20"/>
+      <c r="Q234" s="20"/>
+      <c r="R234" s="20"/>
+      <c r="S234" s="20"/>
+      <c r="T234" s="5"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="20"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="20"/>
+      <c r="K235" s="20"/>
+      <c r="L235" s="20"/>
+      <c r="M235" s="20"/>
+      <c r="N235" s="20"/>
+      <c r="O235" s="20"/>
+      <c r="P235" s="20"/>
+      <c r="Q235" s="20"/>
+      <c r="R235" s="20"/>
+      <c r="S235" s="20"/>
+      <c r="T235" s="5"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="20"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="20"/>
+      <c r="K236" s="20"/>
+      <c r="L236" s="20"/>
+      <c r="M236" s="20"/>
+      <c r="N236" s="20"/>
+      <c r="O236" s="20"/>
+      <c r="P236" s="20"/>
+      <c r="Q236" s="20"/>
+      <c r="R236" s="20"/>
+      <c r="S236" s="20"/>
+      <c r="T236" s="5"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="20"/>
+      <c r="L237" s="20"/>
+      <c r="M237" s="20"/>
+      <c r="N237" s="20"/>
+      <c r="O237" s="20"/>
+      <c r="P237" s="20"/>
+      <c r="Q237" s="20"/>
+      <c r="R237" s="20"/>
+      <c r="S237" s="20"/>
+      <c r="T237" s="5"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="20"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="20"/>
+      <c r="K238" s="20"/>
+      <c r="L238" s="20"/>
+      <c r="M238" s="20"/>
+      <c r="N238" s="20"/>
+      <c r="O238" s="20"/>
+      <c r="P238" s="20"/>
+      <c r="Q238" s="20"/>
+      <c r="R238" s="20"/>
+      <c r="S238" s="20"/>
+      <c r="T238" s="5"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="20"/>
+      <c r="K239" s="20"/>
+      <c r="L239" s="20"/>
+      <c r="M239" s="20"/>
+      <c r="N239" s="20"/>
+      <c r="O239" s="20"/>
+      <c r="P239" s="20"/>
+      <c r="Q239" s="20"/>
+      <c r="R239" s="20"/>
+      <c r="S239" s="20"/>
+      <c r="T239" s="5"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="20"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="20"/>
+      <c r="K240" s="20"/>
+      <c r="L240" s="20"/>
+      <c r="M240" s="20"/>
+      <c r="N240" s="20"/>
+      <c r="O240" s="20"/>
+      <c r="P240" s="20"/>
+      <c r="Q240" s="20"/>
+      <c r="R240" s="20"/>
+      <c r="S240" s="20"/>
+      <c r="T240" s="5"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="20"/>
+      <c r="K241" s="20"/>
+      <c r="L241" s="20"/>
+      <c r="M241" s="20"/>
+      <c r="N241" s="20"/>
+      <c r="O241" s="20"/>
+      <c r="P241" s="20"/>
+      <c r="Q241" s="20"/>
+      <c r="R241" s="20"/>
+      <c r="S241" s="20"/>
+      <c r="T241" s="5"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="20"/>
+      <c r="K242" s="20"/>
+      <c r="L242" s="20"/>
+      <c r="M242" s="20"/>
+      <c r="N242" s="20"/>
+      <c r="O242" s="20"/>
+      <c r="P242" s="20"/>
+      <c r="Q242" s="20"/>
+      <c r="R242" s="20"/>
+      <c r="S242" s="20"/>
+      <c r="T242" s="5"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="20"/>
+      <c r="K243" s="20"/>
+      <c r="L243" s="20"/>
+      <c r="M243" s="20"/>
+      <c r="N243" s="20"/>
+      <c r="O243" s="20"/>
+      <c r="P243" s="20"/>
+      <c r="Q243" s="20"/>
+      <c r="R243" s="20"/>
+      <c r="S243" s="20"/>
+      <c r="T243" s="5"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="20"/>
+      <c r="K244" s="20"/>
+      <c r="L244" s="20"/>
+      <c r="M244" s="20"/>
+      <c r="N244" s="20"/>
+      <c r="O244" s="20"/>
+      <c r="P244" s="20"/>
+      <c r="Q244" s="20"/>
+      <c r="R244" s="20"/>
+      <c r="S244" s="20"/>
+      <c r="T244" s="5"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="20"/>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="20"/>
+      <c r="K245" s="20"/>
+      <c r="L245" s="20"/>
+      <c r="M245" s="20"/>
+      <c r="N245" s="20"/>
+      <c r="O245" s="20"/>
+      <c r="P245" s="20"/>
+      <c r="Q245" s="20"/>
+      <c r="R245" s="20"/>
+      <c r="S245" s="20"/>
+      <c r="T245" s="5"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="20"/>
+      <c r="K246" s="20"/>
+      <c r="L246" s="20"/>
+      <c r="M246" s="20"/>
+      <c r="N246" s="20"/>
+      <c r="O246" s="20"/>
+      <c r="P246" s="20"/>
+      <c r="Q246" s="20"/>
+      <c r="R246" s="20"/>
+      <c r="S246" s="20"/>
+      <c r="T246" s="5"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="20"/>
+      <c r="K247" s="20"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="20"/>
+      <c r="N247" s="20"/>
+      <c r="O247" s="20"/>
+      <c r="P247" s="20"/>
+      <c r="Q247" s="20"/>
+      <c r="R247" s="20"/>
+      <c r="S247" s="20"/>
+      <c r="T247" s="5"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="20"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
+      <c r="N248" s="20"/>
+      <c r="O248" s="20"/>
+      <c r="P248" s="20"/>
+      <c r="Q248" s="20"/>
+      <c r="R248" s="20"/>
+      <c r="S248" s="20"/>
+      <c r="T248" s="5"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="20"/>
+      <c r="K249" s="20"/>
+      <c r="L249" s="20"/>
+      <c r="M249" s="20"/>
+      <c r="N249" s="20"/>
+      <c r="O249" s="20"/>
+      <c r="P249" s="20"/>
+      <c r="Q249" s="20"/>
+      <c r="R249" s="20"/>
+      <c r="S249" s="20"/>
+      <c r="T249" s="5"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="20"/>
+      <c r="K250" s="20"/>
+      <c r="L250" s="20"/>
+      <c r="M250" s="20"/>
+      <c r="N250" s="20"/>
+      <c r="O250" s="20"/>
+      <c r="P250" s="20"/>
+      <c r="Q250" s="20"/>
+      <c r="R250" s="20"/>
+      <c r="S250" s="20"/>
+      <c r="T250" s="5"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="20"/>
+      <c r="K251" s="20"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="20"/>
+      <c r="N251" s="20"/>
+      <c r="O251" s="20"/>
+      <c r="P251" s="20"/>
+      <c r="Q251" s="20"/>
+      <c r="R251" s="20"/>
+      <c r="S251" s="20"/>
+      <c r="T251" s="5"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="20"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="20"/>
+      <c r="K252" s="20"/>
+      <c r="L252" s="20"/>
+      <c r="M252" s="20"/>
+      <c r="N252" s="20"/>
+      <c r="O252" s="20"/>
+      <c r="P252" s="20"/>
+      <c r="Q252" s="20"/>
+      <c r="R252" s="20"/>
+      <c r="S252" s="20"/>
+      <c r="T252" s="5"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="20"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="20"/>
+      <c r="K253" s="20"/>
+      <c r="L253" s="20"/>
+      <c r="M253" s="20"/>
+      <c r="N253" s="20"/>
+      <c r="O253" s="20"/>
+      <c r="P253" s="20"/>
+      <c r="Q253" s="20"/>
+      <c r="R253" s="20"/>
+      <c r="S253" s="20"/>
+      <c r="T253" s="5"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="20"/>
+      <c r="K254" s="20"/>
+      <c r="L254" s="20"/>
+      <c r="M254" s="20"/>
+      <c r="N254" s="20"/>
+      <c r="O254" s="20"/>
+      <c r="P254" s="20"/>
+      <c r="Q254" s="20"/>
+      <c r="R254" s="20"/>
+      <c r="S254" s="20"/>
+      <c r="T254" s="5"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="20"/>
+      <c r="K255" s="20"/>
+      <c r="L255" s="20"/>
+      <c r="M255" s="20"/>
+      <c r="N255" s="20"/>
+      <c r="O255" s="20"/>
+      <c r="P255" s="20"/>
+      <c r="Q255" s="20"/>
+      <c r="R255" s="20"/>
+      <c r="S255" s="20"/>
+      <c r="T255" s="5"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="20"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="20"/>
+      <c r="K256" s="20"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
+      <c r="N256" s="20"/>
+      <c r="O256" s="20"/>
+      <c r="P256" s="20"/>
+      <c r="Q256" s="20"/>
+      <c r="R256" s="20"/>
+      <c r="S256" s="20"/>
+      <c r="T256" s="5"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="20"/>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="20"/>
+      <c r="K257" s="20"/>
+      <c r="L257" s="20"/>
+      <c r="M257" s="20"/>
+      <c r="N257" s="20"/>
+      <c r="O257" s="20"/>
+      <c r="P257" s="20"/>
+      <c r="Q257" s="20"/>
+      <c r="R257" s="20"/>
+      <c r="S257" s="20"/>
+      <c r="T257" s="5"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="20"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="20"/>
+      <c r="K258" s="20"/>
+      <c r="L258" s="20"/>
+      <c r="M258" s="20"/>
+      <c r="N258" s="20"/>
+      <c r="O258" s="20"/>
+      <c r="P258" s="20"/>
+      <c r="Q258" s="20"/>
+      <c r="R258" s="20"/>
+      <c r="S258" s="20"/>
+      <c r="T258" s="5"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="20"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="20"/>
+      <c r="L259" s="20"/>
+      <c r="M259" s="20"/>
+      <c r="N259" s="20"/>
+      <c r="O259" s="20"/>
+      <c r="P259" s="20"/>
+      <c r="Q259" s="20"/>
+      <c r="R259" s="20"/>
+      <c r="S259" s="20"/>
+      <c r="T259" s="5"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="20"/>
+      <c r="K260" s="20"/>
+      <c r="L260" s="20"/>
+      <c r="M260" s="20"/>
+      <c r="N260" s="20"/>
+      <c r="O260" s="20"/>
+      <c r="P260" s="20"/>
+      <c r="Q260" s="20"/>
+      <c r="R260" s="20"/>
+      <c r="S260" s="20"/>
+      <c r="T260" s="5"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="20"/>
+      <c r="K261" s="20"/>
+      <c r="L261" s="20"/>
+      <c r="M261" s="20"/>
+      <c r="N261" s="20"/>
+      <c r="O261" s="20"/>
+      <c r="P261" s="20"/>
+      <c r="Q261" s="20"/>
+      <c r="R261" s="20"/>
+      <c r="S261" s="20"/>
+      <c r="T261" s="5"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="20"/>
+      <c r="K262" s="20"/>
+      <c r="L262" s="20"/>
+      <c r="M262" s="20"/>
+      <c r="N262" s="20"/>
+      <c r="O262" s="20"/>
+      <c r="P262" s="20"/>
+      <c r="Q262" s="20"/>
+      <c r="R262" s="20"/>
+      <c r="S262" s="20"/>
+      <c r="T262" s="5"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="20"/>
+      <c r="K263" s="20"/>
+      <c r="L263" s="20"/>
+      <c r="M263" s="20"/>
+      <c r="N263" s="20"/>
+      <c r="O263" s="20"/>
+      <c r="P263" s="20"/>
+      <c r="Q263" s="20"/>
+      <c r="R263" s="20"/>
+      <c r="S263" s="20"/>
+      <c r="T263" s="5"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="20"/>
+      <c r="K264" s="20"/>
+      <c r="L264" s="20"/>
+      <c r="M264" s="20"/>
+      <c r="N264" s="20"/>
+      <c r="O264" s="20"/>
+      <c r="P264" s="20"/>
+      <c r="Q264" s="20"/>
+      <c r="R264" s="20"/>
+      <c r="S264" s="20"/>
+      <c r="T264" s="5"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="20"/>
+      <c r="K265" s="20"/>
+      <c r="L265" s="20"/>
+      <c r="M265" s="20"/>
+      <c r="N265" s="20"/>
+      <c r="O265" s="20"/>
+      <c r="P265" s="20"/>
+      <c r="Q265" s="20"/>
+      <c r="R265" s="20"/>
+      <c r="S265" s="20"/>
+      <c r="T265" s="5"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="20"/>
+      <c r="K266" s="20"/>
+      <c r="L266" s="20"/>
+      <c r="M266" s="20"/>
+      <c r="N266" s="20"/>
+      <c r="O266" s="20"/>
+      <c r="P266" s="20"/>
+      <c r="Q266" s="20"/>
+      <c r="R266" s="20"/>
+      <c r="S266" s="20"/>
+      <c r="T266" s="5"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="20"/>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="20"/>
+      <c r="K267" s="20"/>
+      <c r="L267" s="20"/>
+      <c r="M267" s="20"/>
+      <c r="N267" s="20"/>
+      <c r="O267" s="20"/>
+      <c r="P267" s="20"/>
+      <c r="Q267" s="20"/>
+      <c r="R267" s="20"/>
+      <c r="S267" s="20"/>
+      <c r="T267" s="5"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="20"/>
+      <c r="K268" s="20"/>
+      <c r="L268" s="20"/>
+      <c r="M268" s="20"/>
+      <c r="N268" s="20"/>
+      <c r="O268" s="20"/>
+      <c r="P268" s="20"/>
+      <c r="Q268" s="20"/>
+      <c r="R268" s="20"/>
+      <c r="S268" s="20"/>
+      <c r="T268" s="5"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
+      <c r="N269" s="20"/>
+      <c r="O269" s="20"/>
+      <c r="P269" s="20"/>
+      <c r="Q269" s="20"/>
+      <c r="R269" s="20"/>
+      <c r="S269" s="20"/>
+      <c r="T269" s="5"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
+      <c r="J270" s="20"/>
+      <c r="K270" s="20"/>
+      <c r="L270" s="20"/>
+      <c r="M270" s="20"/>
+      <c r="N270" s="20"/>
+      <c r="O270" s="20"/>
+      <c r="P270" s="20"/>
+      <c r="Q270" s="20"/>
+      <c r="R270" s="20"/>
+      <c r="S270" s="20"/>
+      <c r="T270" s="5"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="20"/>
+      <c r="K271" s="20"/>
+      <c r="L271" s="20"/>
+      <c r="M271" s="20"/>
+      <c r="N271" s="20"/>
+      <c r="O271" s="20"/>
+      <c r="P271" s="20"/>
+      <c r="Q271" s="20"/>
+      <c r="R271" s="20"/>
+      <c r="S271" s="20"/>
+      <c r="T271" s="5"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="20"/>
+      <c r="K272" s="20"/>
+      <c r="L272" s="20"/>
+      <c r="M272" s="20"/>
+      <c r="N272" s="20"/>
+      <c r="O272" s="20"/>
+      <c r="P272" s="20"/>
+      <c r="Q272" s="20"/>
+      <c r="R272" s="20"/>
+      <c r="S272" s="20"/>
+      <c r="T272" s="5"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="20"/>
+      <c r="K273" s="20"/>
+      <c r="L273" s="20"/>
+      <c r="M273" s="20"/>
+      <c r="N273" s="20"/>
+      <c r="O273" s="20"/>
+      <c r="P273" s="20"/>
+      <c r="Q273" s="20"/>
+      <c r="R273" s="20"/>
+      <c r="S273" s="20"/>
+      <c r="T273" s="5"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="20"/>
+      <c r="J274" s="20"/>
+      <c r="K274" s="20"/>
+      <c r="L274" s="20"/>
+      <c r="M274" s="20"/>
+      <c r="N274" s="20"/>
+      <c r="O274" s="20"/>
+      <c r="P274" s="20"/>
+      <c r="Q274" s="20"/>
+      <c r="R274" s="20"/>
+      <c r="S274" s="20"/>
+      <c r="T274" s="5"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="20"/>
+      <c r="K275" s="20"/>
+      <c r="L275" s="20"/>
+      <c r="M275" s="20"/>
+      <c r="N275" s="20"/>
+      <c r="O275" s="20"/>
+      <c r="P275" s="20"/>
+      <c r="Q275" s="20"/>
+      <c r="R275" s="20"/>
+      <c r="S275" s="20"/>
+      <c r="T275" s="5"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="20"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="20"/>
+      <c r="H276" s="20"/>
+      <c r="I276" s="20"/>
+      <c r="J276" s="20"/>
+      <c r="K276" s="20"/>
+      <c r="L276" s="20"/>
+      <c r="M276" s="20"/>
+      <c r="N276" s="20"/>
+      <c r="O276" s="20"/>
+      <c r="P276" s="20"/>
+      <c r="Q276" s="20"/>
+      <c r="R276" s="20"/>
+      <c r="S276" s="20"/>
+      <c r="T276" s="5"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="20"/>
+      <c r="I277" s="20"/>
+      <c r="J277" s="20"/>
+      <c r="K277" s="20"/>
+      <c r="L277" s="20"/>
+      <c r="M277" s="20"/>
+      <c r="N277" s="20"/>
+      <c r="O277" s="20"/>
+      <c r="P277" s="20"/>
+      <c r="Q277" s="20"/>
+      <c r="R277" s="20"/>
+      <c r="S277" s="20"/>
+      <c r="T277" s="5"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="20"/>
+      <c r="H278" s="20"/>
+      <c r="I278" s="20"/>
+      <c r="J278" s="20"/>
+      <c r="K278" s="20"/>
+      <c r="L278" s="20"/>
+      <c r="M278" s="20"/>
+      <c r="N278" s="20"/>
+      <c r="O278" s="20"/>
+      <c r="P278" s="20"/>
+      <c r="Q278" s="20"/>
+      <c r="R278" s="20"/>
+      <c r="S278" s="20"/>
+      <c r="T278" s="5"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="20"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="20"/>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="20"/>
+      <c r="K279" s="20"/>
+      <c r="L279" s="20"/>
+      <c r="M279" s="20"/>
+      <c r="N279" s="20"/>
+      <c r="O279" s="20"/>
+      <c r="P279" s="20"/>
+      <c r="Q279" s="20"/>
+      <c r="R279" s="20"/>
+      <c r="S279" s="20"/>
+      <c r="T279" s="5"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="20"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="20"/>
+      <c r="J280" s="20"/>
+      <c r="K280" s="20"/>
+      <c r="L280" s="20"/>
+      <c r="M280" s="20"/>
+      <c r="N280" s="20"/>
+      <c r="O280" s="20"/>
+      <c r="P280" s="20"/>
+      <c r="Q280" s="20"/>
+      <c r="R280" s="20"/>
+      <c r="S280" s="20"/>
+      <c r="T280" s="5"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="20"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="20"/>
+      <c r="I281" s="20"/>
+      <c r="J281" s="20"/>
+      <c r="K281" s="20"/>
+      <c r="L281" s="20"/>
+      <c r="M281" s="20"/>
+      <c r="N281" s="20"/>
+      <c r="O281" s="20"/>
+      <c r="P281" s="20"/>
+      <c r="Q281" s="20"/>
+      <c r="R281" s="20"/>
+      <c r="S281" s="20"/>
+      <c r="T281" s="5"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="20"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="20"/>
+      <c r="H282" s="20"/>
+      <c r="I282" s="20"/>
+      <c r="J282" s="20"/>
+      <c r="K282" s="20"/>
+      <c r="L282" s="20"/>
+      <c r="M282" s="20"/>
+      <c r="N282" s="20"/>
+      <c r="O282" s="20"/>
+      <c r="P282" s="20"/>
+      <c r="Q282" s="20"/>
+      <c r="R282" s="20"/>
+      <c r="S282" s="20"/>
+      <c r="T282" s="5"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="20"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="20"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="20"/>
+      <c r="K283" s="20"/>
+      <c r="L283" s="20"/>
+      <c r="M283" s="20"/>
+      <c r="N283" s="20"/>
+      <c r="O283" s="20"/>
+      <c r="P283" s="20"/>
+      <c r="Q283" s="20"/>
+      <c r="R283" s="20"/>
+      <c r="S283" s="20"/>
+      <c r="T283" s="5"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="20"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="20"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="20"/>
+      <c r="K284" s="20"/>
+      <c r="L284" s="20"/>
+      <c r="M284" s="20"/>
+      <c r="N284" s="20"/>
+      <c r="O284" s="20"/>
+      <c r="P284" s="20"/>
+      <c r="Q284" s="20"/>
+      <c r="R284" s="20"/>
+      <c r="S284" s="20"/>
+      <c r="T284" s="5"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="20"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="20"/>
+      <c r="K285" s="20"/>
+      <c r="L285" s="20"/>
+      <c r="M285" s="20"/>
+      <c r="N285" s="20"/>
+      <c r="O285" s="20"/>
+      <c r="P285" s="20"/>
+      <c r="Q285" s="20"/>
+      <c r="R285" s="20"/>
+      <c r="S285" s="20"/>
+      <c r="T285" s="5"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="20"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="20"/>
+      <c r="H286" s="20"/>
+      <c r="I286" s="20"/>
+      <c r="J286" s="20"/>
+      <c r="K286" s="20"/>
+      <c r="L286" s="20"/>
+      <c r="M286" s="20"/>
+      <c r="N286" s="20"/>
+      <c r="O286" s="20"/>
+      <c r="P286" s="20"/>
+      <c r="Q286" s="20"/>
+      <c r="R286" s="20"/>
+      <c r="S286" s="20"/>
+      <c r="T286" s="5"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="20"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="20"/>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
+      <c r="J287" s="20"/>
+      <c r="K287" s="20"/>
+      <c r="L287" s="20"/>
+      <c r="M287" s="20"/>
+      <c r="N287" s="20"/>
+      <c r="O287" s="20"/>
+      <c r="P287" s="20"/>
+      <c r="Q287" s="20"/>
+      <c r="R287" s="20"/>
+      <c r="S287" s="20"/>
+      <c r="T287" s="5"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="20"/>
+      <c r="K288" s="20"/>
+      <c r="L288" s="20"/>
+      <c r="M288" s="20"/>
+      <c r="N288" s="20"/>
+      <c r="O288" s="20"/>
+      <c r="P288" s="20"/>
+      <c r="Q288" s="20"/>
+      <c r="R288" s="20"/>
+      <c r="S288" s="20"/>
+      <c r="T288" s="5"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="20"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="20"/>
+      <c r="K289" s="20"/>
+      <c r="L289" s="20"/>
+      <c r="M289" s="20"/>
+      <c r="N289" s="20"/>
+      <c r="O289" s="20"/>
+      <c r="P289" s="20"/>
+      <c r="Q289" s="20"/>
+      <c r="R289" s="20"/>
+      <c r="S289" s="20"/>
+      <c r="T289" s="5"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="20"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="20"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="20"/>
+      <c r="J290" s="20"/>
+      <c r="K290" s="20"/>
+      <c r="L290" s="20"/>
+      <c r="M290" s="20"/>
+      <c r="N290" s="20"/>
+      <c r="O290" s="20"/>
+      <c r="P290" s="20"/>
+      <c r="Q290" s="20"/>
+      <c r="R290" s="20"/>
+      <c r="S290" s="20"/>
+      <c r="T290" s="5"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="20"/>
+      <c r="H291" s="20"/>
+      <c r="I291" s="20"/>
+      <c r="J291" s="20"/>
+      <c r="K291" s="20"/>
+      <c r="L291" s="20"/>
+      <c r="M291" s="20"/>
+      <c r="N291" s="20"/>
+      <c r="O291" s="20"/>
+      <c r="P291" s="20"/>
+      <c r="Q291" s="20"/>
+      <c r="R291" s="20"/>
+      <c r="S291" s="20"/>
+      <c r="T291" s="5"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="20"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="20"/>
+      <c r="H292" s="20"/>
+      <c r="I292" s="20"/>
+      <c r="J292" s="20"/>
+      <c r="K292" s="20"/>
+      <c r="L292" s="20"/>
+      <c r="M292" s="20"/>
+      <c r="N292" s="20"/>
+      <c r="O292" s="20"/>
+      <c r="P292" s="20"/>
+      <c r="Q292" s="20"/>
+      <c r="R292" s="20"/>
+      <c r="S292" s="20"/>
+      <c r="T292" s="5"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="20"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="20"/>
+      <c r="I293" s="20"/>
+      <c r="J293" s="20"/>
+      <c r="K293" s="20"/>
+      <c r="L293" s="20"/>
+      <c r="M293" s="20"/>
+      <c r="N293" s="20"/>
+      <c r="O293" s="20"/>
+      <c r="P293" s="20"/>
+      <c r="Q293" s="20"/>
+      <c r="R293" s="20"/>
+      <c r="S293" s="20"/>
+      <c r="T293" s="5"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="20"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="20"/>
+      <c r="H294" s="20"/>
+      <c r="I294" s="20"/>
+      <c r="J294" s="20"/>
+      <c r="K294" s="20"/>
+      <c r="L294" s="20"/>
+      <c r="M294" s="20"/>
+      <c r="N294" s="20"/>
+      <c r="O294" s="20"/>
+      <c r="P294" s="20"/>
+      <c r="Q294" s="20"/>
+      <c r="R294" s="20"/>
+      <c r="S294" s="20"/>
+      <c r="T294" s="5"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="20"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="20"/>
+      <c r="H295" s="20"/>
+      <c r="I295" s="20"/>
+      <c r="J295" s="20"/>
+      <c r="K295" s="20"/>
+      <c r="L295" s="20"/>
+      <c r="M295" s="20"/>
+      <c r="N295" s="20"/>
+      <c r="O295" s="20"/>
+      <c r="P295" s="20"/>
+      <c r="Q295" s="20"/>
+      <c r="R295" s="20"/>
+      <c r="S295" s="20"/>
+      <c r="T295" s="5"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="20"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="20"/>
+      <c r="H296" s="20"/>
+      <c r="I296" s="20"/>
+      <c r="J296" s="20"/>
+      <c r="K296" s="20"/>
+      <c r="L296" s="20"/>
+      <c r="M296" s="20"/>
+      <c r="N296" s="20"/>
+      <c r="O296" s="20"/>
+      <c r="P296" s="20"/>
+      <c r="Q296" s="20"/>
+      <c r="R296" s="20"/>
+      <c r="S296" s="20"/>
+      <c r="T296" s="5"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="20"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="20"/>
+      <c r="H297" s="20"/>
+      <c r="I297" s="20"/>
+      <c r="J297" s="20"/>
+      <c r="K297" s="20"/>
+      <c r="L297" s="20"/>
+      <c r="M297" s="20"/>
+      <c r="N297" s="20"/>
+      <c r="O297" s="20"/>
+      <c r="P297" s="20"/>
+      <c r="Q297" s="20"/>
+      <c r="R297" s="20"/>
+      <c r="S297" s="20"/>
+      <c r="T297" s="5"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
+      <c r="B298" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C298" s="20"/>
+      <c r="D298" s="20"/>
+      <c r="E298" s="20"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="20"/>
+      <c r="H298" s="20"/>
+      <c r="I298" s="20"/>
+      <c r="J298" s="20"/>
+      <c r="K298" s="20"/>
+      <c r="L298" s="20"/>
+      <c r="M298" s="20"/>
+      <c r="N298" s="20"/>
+      <c r="O298" s="20"/>
+      <c r="P298" s="20"/>
+      <c r="Q298" s="20"/>
+      <c r="R298" s="20"/>
+      <c r="S298" s="20"/>
+      <c r="T298" s="5"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A299" s="4"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="20"/>
+      <c r="E299" s="20"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="20"/>
+      <c r="H299" s="20"/>
+      <c r="I299" s="20"/>
+      <c r="J299" s="20"/>
+      <c r="K299" s="20"/>
+      <c r="L299" s="20"/>
+      <c r="M299" s="20"/>
+      <c r="N299" s="20"/>
+      <c r="O299" s="20"/>
+      <c r="P299" s="20"/>
+      <c r="Q299" s="20"/>
+      <c r="R299" s="20"/>
+      <c r="S299" s="20"/>
+      <c r="T299" s="5"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A300" s="4"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="20"/>
+      <c r="E300" s="20"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="20"/>
+      <c r="H300" s="20"/>
+      <c r="I300" s="20"/>
+      <c r="J300" s="20"/>
+      <c r="K300" s="20"/>
+      <c r="L300" s="20"/>
+      <c r="M300" s="20"/>
+      <c r="N300" s="20"/>
+      <c r="O300" s="20"/>
+      <c r="P300" s="20"/>
+      <c r="Q300" s="20"/>
+      <c r="R300" s="20"/>
+      <c r="S300" s="20"/>
+      <c r="T300" s="5"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A301" s="4"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
+      <c r="D301" s="20"/>
+      <c r="E301" s="20"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="20"/>
+      <c r="H301" s="20"/>
+      <c r="I301" s="20"/>
+      <c r="J301" s="20"/>
+      <c r="K301" s="20"/>
+      <c r="L301" s="20"/>
+      <c r="M301" s="20"/>
+      <c r="N301" s="20"/>
+      <c r="O301" s="20"/>
+      <c r="P301" s="20"/>
+      <c r="Q301" s="20"/>
+      <c r="R301" s="20"/>
+      <c r="S301" s="20"/>
+      <c r="T301" s="5"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A302" s="4"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
+      <c r="D302" s="20"/>
+      <c r="E302" s="20"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="20"/>
+      <c r="H302" s="20"/>
+      <c r="I302" s="20"/>
+      <c r="J302" s="20"/>
+      <c r="K302" s="20"/>
+      <c r="L302" s="20"/>
+      <c r="M302" s="20"/>
+      <c r="N302" s="20"/>
+      <c r="O302" s="20"/>
+      <c r="P302" s="20"/>
+      <c r="Q302" s="20"/>
+      <c r="R302" s="20"/>
+      <c r="S302" s="20"/>
+      <c r="T302" s="5"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A303" s="4"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
+      <c r="D303" s="20"/>
+      <c r="E303" s="20"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="20"/>
+      <c r="H303" s="20"/>
+      <c r="I303" s="20"/>
+      <c r="J303" s="20"/>
+      <c r="K303" s="20"/>
+      <c r="L303" s="20"/>
+      <c r="M303" s="20"/>
+      <c r="N303" s="20"/>
+      <c r="O303" s="20"/>
+      <c r="P303" s="20"/>
+      <c r="Q303" s="20"/>
+      <c r="R303" s="20"/>
+      <c r="S303" s="20"/>
+      <c r="T303" s="5"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A304" s="4"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
+      <c r="D304" s="20"/>
+      <c r="E304" s="20"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="20"/>
+      <c r="H304" s="20"/>
+      <c r="I304" s="20"/>
+      <c r="J304" s="20"/>
+      <c r="K304" s="20"/>
+      <c r="L304" s="20"/>
+      <c r="M304" s="20"/>
+      <c r="N304" s="20"/>
+      <c r="O304" s="20"/>
+      <c r="P304" s="20"/>
+      <c r="Q304" s="20"/>
+      <c r="R304" s="20"/>
+      <c r="S304" s="20"/>
+      <c r="T304" s="5"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A305" s="4"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="20"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="20"/>
+      <c r="H305" s="20"/>
+      <c r="I305" s="20"/>
+      <c r="J305" s="20"/>
+      <c r="K305" s="20"/>
+      <c r="L305" s="20"/>
+      <c r="M305" s="20"/>
+      <c r="N305" s="20"/>
+      <c r="O305" s="20"/>
+      <c r="P305" s="20"/>
+      <c r="Q305" s="20"/>
+      <c r="R305" s="20"/>
+      <c r="S305" s="20"/>
+      <c r="T305" s="5"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A306" s="4"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="20"/>
+      <c r="E306" s="20"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="20"/>
+      <c r="H306" s="20"/>
+      <c r="I306" s="20"/>
+      <c r="J306" s="20"/>
+      <c r="K306" s="20"/>
+      <c r="L306" s="20"/>
+      <c r="M306" s="20"/>
+      <c r="N306" s="20"/>
+      <c r="O306" s="20"/>
+      <c r="P306" s="20"/>
+      <c r="Q306" s="20"/>
+      <c r="R306" s="20"/>
+      <c r="S306" s="20"/>
+      <c r="T306" s="5"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
+      <c r="D307" s="20"/>
+      <c r="E307" s="20"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="20"/>
+      <c r="H307" s="20"/>
+      <c r="I307" s="20"/>
+      <c r="J307" s="20"/>
+      <c r="K307" s="20"/>
+      <c r="L307" s="20"/>
+      <c r="M307" s="20"/>
+      <c r="N307" s="20"/>
+      <c r="O307" s="20"/>
+      <c r="P307" s="20"/>
+      <c r="Q307" s="20"/>
+      <c r="R307" s="20"/>
+      <c r="S307" s="20"/>
+      <c r="T307" s="5"/>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A308" s="4"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
+      <c r="D308" s="20"/>
+      <c r="E308" s="20"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="20"/>
+      <c r="H308" s="20"/>
+      <c r="I308" s="20"/>
+      <c r="J308" s="20"/>
+      <c r="K308" s="20"/>
+      <c r="L308" s="20"/>
+      <c r="M308" s="20"/>
+      <c r="N308" s="20"/>
+      <c r="O308" s="20"/>
+      <c r="P308" s="20"/>
+      <c r="Q308" s="20"/>
+      <c r="R308" s="20"/>
+      <c r="S308" s="20"/>
+      <c r="T308" s="5"/>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A309" s="4"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
+      <c r="D309" s="20"/>
+      <c r="E309" s="20"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="20"/>
+      <c r="H309" s="20"/>
+      <c r="I309" s="20"/>
+      <c r="J309" s="20"/>
+      <c r="K309" s="20"/>
+      <c r="L309" s="20"/>
+      <c r="M309" s="20"/>
+      <c r="N309" s="20"/>
+      <c r="O309" s="20"/>
+      <c r="P309" s="20"/>
+      <c r="Q309" s="20"/>
+      <c r="R309" s="20"/>
+      <c r="S309" s="20"/>
+      <c r="T309" s="5"/>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="20"/>
+      <c r="E310" s="20"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="20"/>
+      <c r="H310" s="20"/>
+      <c r="I310" s="20"/>
+      <c r="J310" s="20"/>
+      <c r="K310" s="20"/>
+      <c r="L310" s="20"/>
+      <c r="M310" s="20"/>
+      <c r="N310" s="20"/>
+      <c r="O310" s="20"/>
+      <c r="P310" s="20"/>
+      <c r="Q310" s="20"/>
+      <c r="R310" s="20"/>
+      <c r="S310" s="20"/>
+      <c r="T310" s="5"/>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="20"/>
+      <c r="F311" s="20"/>
+      <c r="G311" s="20"/>
+      <c r="H311" s="20"/>
+      <c r="I311" s="20"/>
+      <c r="J311" s="20"/>
+      <c r="K311" s="20"/>
+      <c r="L311" s="20"/>
+      <c r="M311" s="20"/>
+      <c r="N311" s="20"/>
+      <c r="O311" s="20"/>
+      <c r="P311" s="20"/>
+      <c r="Q311" s="20"/>
+      <c r="R311" s="20"/>
+      <c r="S311" s="20"/>
+      <c r="T311" s="5"/>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
+      <c r="D312" s="20"/>
+      <c r="E312" s="20"/>
+      <c r="F312" s="20"/>
+      <c r="G312" s="20"/>
+      <c r="H312" s="20"/>
+      <c r="I312" s="20"/>
+      <c r="J312" s="20"/>
+      <c r="K312" s="20"/>
+      <c r="L312" s="20"/>
+      <c r="M312" s="20"/>
+      <c r="N312" s="20"/>
+      <c r="O312" s="20"/>
+      <c r="P312" s="20"/>
+      <c r="Q312" s="20"/>
+      <c r="R312" s="20"/>
+      <c r="S312" s="20"/>
+      <c r="T312" s="5"/>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
+      <c r="D313" s="20"/>
+      <c r="E313" s="20"/>
+      <c r="F313" s="20"/>
+      <c r="G313" s="20"/>
+      <c r="H313" s="20"/>
+      <c r="I313" s="20"/>
+      <c r="J313" s="20"/>
+      <c r="K313" s="20"/>
+      <c r="L313" s="20"/>
+      <c r="M313" s="20"/>
+      <c r="N313" s="20"/>
+      <c r="O313" s="20"/>
+      <c r="P313" s="20"/>
+      <c r="Q313" s="20"/>
+      <c r="R313" s="20"/>
+      <c r="S313" s="20"/>
+      <c r="T313" s="5"/>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
+      <c r="D314" s="20"/>
+      <c r="E314" s="20"/>
+      <c r="F314" s="20"/>
+      <c r="G314" s="20"/>
+      <c r="H314" s="20"/>
+      <c r="I314" s="20"/>
+      <c r="J314" s="20"/>
+      <c r="K314" s="20"/>
+      <c r="L314" s="20"/>
+      <c r="M314" s="20"/>
+      <c r="N314" s="20"/>
+      <c r="O314" s="20"/>
+      <c r="P314" s="20"/>
+      <c r="Q314" s="20"/>
+      <c r="R314" s="20"/>
+      <c r="S314" s="20"/>
+      <c r="T314" s="5"/>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A315" s="4"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
+      <c r="D315" s="20"/>
+      <c r="E315" s="20"/>
+      <c r="F315" s="20"/>
+      <c r="G315" s="20"/>
+      <c r="H315" s="20"/>
+      <c r="I315" s="20"/>
+      <c r="J315" s="20"/>
+      <c r="K315" s="20"/>
+      <c r="L315" s="20"/>
+      <c r="M315" s="20"/>
+      <c r="N315" s="20"/>
+      <c r="O315" s="20"/>
+      <c r="P315" s="20"/>
+      <c r="Q315" s="20"/>
+      <c r="R315" s="20"/>
+      <c r="S315" s="20"/>
+      <c r="T315" s="5"/>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A316" s="4"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
+      <c r="D316" s="20"/>
+      <c r="E316" s="20"/>
+      <c r="F316" s="20"/>
+      <c r="G316" s="20"/>
+      <c r="H316" s="20"/>
+      <c r="I316" s="20"/>
+      <c r="J316" s="20"/>
+      <c r="K316" s="20"/>
+      <c r="L316" s="20"/>
+      <c r="M316" s="20"/>
+      <c r="N316" s="20"/>
+      <c r="O316" s="20"/>
+      <c r="P316" s="20"/>
+      <c r="Q316" s="20"/>
+      <c r="R316" s="20"/>
+      <c r="S316" s="20"/>
+      <c r="T316" s="5"/>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A317" s="4"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
+      <c r="D317" s="20"/>
+      <c r="E317" s="20"/>
+      <c r="F317" s="20"/>
+      <c r="G317" s="20"/>
+      <c r="H317" s="20"/>
+      <c r="I317" s="20"/>
+      <c r="J317" s="20"/>
+      <c r="K317" s="20"/>
+      <c r="L317" s="20"/>
+      <c r="M317" s="20"/>
+      <c r="N317" s="20"/>
+      <c r="O317" s="20"/>
+      <c r="P317" s="20"/>
+      <c r="Q317" s="20"/>
+      <c r="R317" s="20"/>
+      <c r="S317" s="20"/>
+      <c r="T317" s="5"/>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A318" s="4"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
+      <c r="D318" s="20"/>
+      <c r="E318" s="20"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="20"/>
+      <c r="H318" s="20"/>
+      <c r="I318" s="20"/>
+      <c r="J318" s="20"/>
+      <c r="K318" s="20"/>
+      <c r="L318" s="20"/>
+      <c r="M318" s="20"/>
+      <c r="N318" s="20"/>
+      <c r="O318" s="20"/>
+      <c r="P318" s="20"/>
+      <c r="Q318" s="20"/>
+      <c r="R318" s="20"/>
+      <c r="S318" s="20"/>
+      <c r="T318" s="5"/>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A319" s="4"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
+      <c r="D319" s="20"/>
+      <c r="E319" s="20"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="20"/>
+      <c r="H319" s="20"/>
+      <c r="I319" s="20"/>
+      <c r="J319" s="20"/>
+      <c r="K319" s="20"/>
+      <c r="L319" s="20"/>
+      <c r="M319" s="20"/>
+      <c r="N319" s="20"/>
+      <c r="O319" s="20"/>
+      <c r="P319" s="20"/>
+      <c r="Q319" s="20"/>
+      <c r="R319" s="20"/>
+      <c r="S319" s="20"/>
+      <c r="T319" s="5"/>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A320" s="4"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="20"/>
+      <c r="E320" s="20"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="20"/>
+      <c r="H320" s="20"/>
+      <c r="I320" s="20"/>
+      <c r="J320" s="20"/>
+      <c r="K320" s="20"/>
+      <c r="L320" s="20"/>
+      <c r="M320" s="20"/>
+      <c r="N320" s="20"/>
+      <c r="O320" s="20"/>
+      <c r="P320" s="20"/>
+      <c r="Q320" s="20"/>
+      <c r="R320" s="20"/>
+      <c r="S320" s="20"/>
+      <c r="T320" s="5"/>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A321" s="4"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
+      <c r="D321" s="20"/>
+      <c r="E321" s="20"/>
+      <c r="F321" s="20"/>
+      <c r="G321" s="20"/>
+      <c r="H321" s="20"/>
+      <c r="I321" s="20"/>
+      <c r="J321" s="20"/>
+      <c r="K321" s="20"/>
+      <c r="L321" s="20"/>
+      <c r="M321" s="20"/>
+      <c r="N321" s="20"/>
+      <c r="O321" s="20"/>
+      <c r="P321" s="20"/>
+      <c r="Q321" s="20"/>
+      <c r="R321" s="20"/>
+      <c r="S321" s="20"/>
+      <c r="T321" s="5"/>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A322" s="4"/>
+      <c r="B322" s="20"/>
+      <c r="C322" s="20"/>
+      <c r="D322" s="20"/>
+      <c r="E322" s="20"/>
+      <c r="F322" s="20"/>
+      <c r="G322" s="20"/>
+      <c r="H322" s="20"/>
+      <c r="I322" s="20"/>
+      <c r="J322" s="20"/>
+      <c r="K322" s="20"/>
+      <c r="L322" s="20"/>
+      <c r="M322" s="20"/>
+      <c r="N322" s="20"/>
+      <c r="O322" s="20"/>
+      <c r="P322" s="20"/>
+      <c r="Q322" s="20"/>
+      <c r="R322" s="20"/>
+      <c r="S322" s="20"/>
+      <c r="T322" s="5"/>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="20"/>
+      <c r="D323" s="20"/>
+      <c r="E323" s="20"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="20"/>
+      <c r="H323" s="20"/>
+      <c r="I323" s="20"/>
+      <c r="J323" s="20"/>
+      <c r="K323" s="20"/>
+      <c r="L323" s="20"/>
+      <c r="M323" s="20"/>
+      <c r="N323" s="20"/>
+      <c r="O323" s="20"/>
+      <c r="P323" s="20"/>
+      <c r="Q323" s="20"/>
+      <c r="R323" s="20"/>
+      <c r="S323" s="20"/>
+      <c r="T323" s="5"/>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A324" s="4"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="20"/>
+      <c r="D324" s="20"/>
+      <c r="E324" s="20"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="20"/>
+      <c r="H324" s="20"/>
+      <c r="I324" s="20"/>
+      <c r="J324" s="20"/>
+      <c r="K324" s="20"/>
+      <c r="L324" s="20"/>
+      <c r="M324" s="20"/>
+      <c r="N324" s="20"/>
+      <c r="O324" s="20"/>
+      <c r="P324" s="20"/>
+      <c r="Q324" s="20"/>
+      <c r="R324" s="20"/>
+      <c r="S324" s="20"/>
+      <c r="T324" s="5"/>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A325" s="4"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
+      <c r="D325" s="20"/>
+      <c r="E325" s="20"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="20"/>
+      <c r="H325" s="20"/>
+      <c r="I325" s="20"/>
+      <c r="J325" s="20"/>
+      <c r="K325" s="20"/>
+      <c r="L325" s="20"/>
+      <c r="M325" s="20"/>
+      <c r="N325" s="20"/>
+      <c r="O325" s="20"/>
+      <c r="P325" s="20"/>
+      <c r="Q325" s="20"/>
+      <c r="R325" s="20"/>
+      <c r="S325" s="20"/>
+      <c r="T325" s="5"/>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A326" s="4"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="20"/>
+      <c r="D326" s="20"/>
+      <c r="E326" s="20"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="20"/>
+      <c r="H326" s="20"/>
+      <c r="I326" s="20"/>
+      <c r="J326" s="20"/>
+      <c r="K326" s="20"/>
+      <c r="L326" s="20"/>
+      <c r="M326" s="20"/>
+      <c r="N326" s="20"/>
+      <c r="O326" s="20"/>
+      <c r="P326" s="20"/>
+      <c r="Q326" s="20"/>
+      <c r="R326" s="20"/>
+      <c r="S326" s="20"/>
+      <c r="T326" s="5"/>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A327" s="4"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="20"/>
+      <c r="E327" s="20"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="20"/>
+      <c r="H327" s="20"/>
+      <c r="I327" s="20"/>
+      <c r="J327" s="20"/>
+      <c r="K327" s="20"/>
+      <c r="L327" s="20"/>
+      <c r="M327" s="20"/>
+      <c r="N327" s="20"/>
+      <c r="O327" s="20"/>
+      <c r="P327" s="20"/>
+      <c r="Q327" s="20"/>
+      <c r="R327" s="20"/>
+      <c r="S327" s="20"/>
+      <c r="T327" s="5"/>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A328" s="4"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="20"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="20"/>
+      <c r="H328" s="20"/>
+      <c r="I328" s="20"/>
+      <c r="J328" s="20"/>
+      <c r="K328" s="20"/>
+      <c r="L328" s="20"/>
+      <c r="M328" s="20"/>
+      <c r="N328" s="20"/>
+      <c r="O328" s="20"/>
+      <c r="P328" s="20"/>
+      <c r="Q328" s="20"/>
+      <c r="R328" s="20"/>
+      <c r="S328" s="20"/>
+      <c r="T328" s="5"/>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A329" s="4"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="20"/>
+      <c r="E329" s="20"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="20"/>
+      <c r="H329" s="20"/>
+      <c r="I329" s="20"/>
+      <c r="J329" s="20"/>
+      <c r="K329" s="20"/>
+      <c r="L329" s="20"/>
+      <c r="M329" s="20"/>
+      <c r="N329" s="20"/>
+      <c r="O329" s="20"/>
+      <c r="P329" s="20"/>
+      <c r="Q329" s="20"/>
+      <c r="R329" s="20"/>
+      <c r="S329" s="20"/>
+      <c r="T329" s="5"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="20"/>
+      <c r="E330" s="20"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="20"/>
+      <c r="H330" s="20"/>
+      <c r="I330" s="20"/>
+      <c r="J330" s="20"/>
+      <c r="K330" s="20"/>
+      <c r="L330" s="20"/>
+      <c r="M330" s="20"/>
+      <c r="N330" s="20"/>
+      <c r="O330" s="20"/>
+      <c r="P330" s="20"/>
+      <c r="Q330" s="20"/>
+      <c r="R330" s="20"/>
+      <c r="S330" s="20"/>
+      <c r="T330" s="5"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="20"/>
+      <c r="E331" s="20"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="20"/>
+      <c r="H331" s="20"/>
+      <c r="I331" s="20"/>
+      <c r="J331" s="20"/>
+      <c r="K331" s="20"/>
+      <c r="L331" s="20"/>
+      <c r="M331" s="20"/>
+      <c r="N331" s="20"/>
+      <c r="O331" s="20"/>
+      <c r="P331" s="20"/>
+      <c r="Q331" s="20"/>
+      <c r="R331" s="20"/>
+      <c r="S331" s="20"/>
+      <c r="T331" s="5"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="20"/>
+      <c r="E332" s="20"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="20"/>
+      <c r="H332" s="20"/>
+      <c r="I332" s="20"/>
+      <c r="J332" s="20"/>
+      <c r="K332" s="20"/>
+      <c r="L332" s="20"/>
+      <c r="M332" s="20"/>
+      <c r="N332" s="20"/>
+      <c r="O332" s="20"/>
+      <c r="P332" s="20"/>
+      <c r="Q332" s="20"/>
+      <c r="R332" s="20"/>
+      <c r="S332" s="20"/>
+      <c r="T332" s="5"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A333" s="4"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="20"/>
+      <c r="E333" s="20"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="20"/>
+      <c r="H333" s="20"/>
+      <c r="I333" s="20"/>
+      <c r="J333" s="20"/>
+      <c r="K333" s="20"/>
+      <c r="L333" s="20"/>
+      <c r="M333" s="20"/>
+      <c r="N333" s="20"/>
+      <c r="O333" s="20"/>
+      <c r="P333" s="20"/>
+      <c r="Q333" s="20"/>
+      <c r="R333" s="20"/>
+      <c r="S333" s="20"/>
+      <c r="T333" s="5"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="20"/>
+      <c r="E334" s="20"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="20"/>
+      <c r="H334" s="20"/>
+      <c r="I334" s="20"/>
+      <c r="J334" s="20"/>
+      <c r="K334" s="20"/>
+      <c r="L334" s="20"/>
+      <c r="M334" s="20"/>
+      <c r="N334" s="20"/>
+      <c r="O334" s="20"/>
+      <c r="P334" s="20"/>
+      <c r="Q334" s="20"/>
+      <c r="R334" s="20"/>
+      <c r="S334" s="20"/>
+      <c r="T334" s="5"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="20"/>
+      <c r="E335" s="20"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="20"/>
+      <c r="H335" s="20"/>
+      <c r="I335" s="20"/>
+      <c r="J335" s="20"/>
+      <c r="K335" s="20"/>
+      <c r="L335" s="20"/>
+      <c r="M335" s="20"/>
+      <c r="N335" s="20"/>
+      <c r="O335" s="20"/>
+      <c r="P335" s="20"/>
+      <c r="Q335" s="20"/>
+      <c r="R335" s="20"/>
+      <c r="S335" s="20"/>
+      <c r="T335" s="5"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A336" s="4"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
+      <c r="D336" s="20"/>
+      <c r="E336" s="20"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="20"/>
+      <c r="H336" s="20"/>
+      <c r="I336" s="20"/>
+      <c r="J336" s="20"/>
+      <c r="K336" s="20"/>
+      <c r="L336" s="20"/>
+      <c r="M336" s="20"/>
+      <c r="N336" s="20"/>
+      <c r="O336" s="20"/>
+      <c r="P336" s="20"/>
+      <c r="Q336" s="20"/>
+      <c r="R336" s="20"/>
+      <c r="S336" s="20"/>
+      <c r="T336" s="5"/>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A337" s="4"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
+      <c r="D337" s="20"/>
+      <c r="E337" s="20"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="20"/>
+      <c r="H337" s="20"/>
+      <c r="I337" s="20"/>
+      <c r="J337" s="20"/>
+      <c r="K337" s="20"/>
+      <c r="L337" s="20"/>
+      <c r="M337" s="20"/>
+      <c r="N337" s="20"/>
+      <c r="O337" s="20"/>
+      <c r="P337" s="20"/>
+      <c r="Q337" s="20"/>
+      <c r="R337" s="20"/>
+      <c r="S337" s="20"/>
+      <c r="T337" s="5"/>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A338" s="4"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="20"/>
+      <c r="D338" s="20"/>
+      <c r="E338" s="20"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="20"/>
+      <c r="H338" s="20"/>
+      <c r="I338" s="20"/>
+      <c r="J338" s="20"/>
+      <c r="K338" s="20"/>
+      <c r="L338" s="20"/>
+      <c r="M338" s="20"/>
+      <c r="N338" s="20"/>
+      <c r="O338" s="20"/>
+      <c r="P338" s="20"/>
+      <c r="Q338" s="20"/>
+      <c r="R338" s="20"/>
+      <c r="S338" s="20"/>
+      <c r="T338" s="5"/>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
+      <c r="D339" s="20"/>
+      <c r="E339" s="20"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="20"/>
+      <c r="H339" s="20"/>
+      <c r="I339" s="20"/>
+      <c r="J339" s="20"/>
+      <c r="K339" s="20"/>
+      <c r="L339" s="20"/>
+      <c r="M339" s="20"/>
+      <c r="N339" s="20"/>
+      <c r="O339" s="20"/>
+      <c r="P339" s="20"/>
+      <c r="Q339" s="20"/>
+      <c r="R339" s="20"/>
+      <c r="S339" s="20"/>
+      <c r="T339" s="5"/>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A340" s="4"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="20"/>
+      <c r="D340" s="20"/>
+      <c r="E340" s="20"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="20"/>
+      <c r="H340" s="20"/>
+      <c r="I340" s="20"/>
+      <c r="J340" s="20"/>
+      <c r="K340" s="20"/>
+      <c r="L340" s="20"/>
+      <c r="M340" s="20"/>
+      <c r="N340" s="20"/>
+      <c r="O340" s="20"/>
+      <c r="P340" s="20"/>
+      <c r="Q340" s="20"/>
+      <c r="R340" s="20"/>
+      <c r="S340" s="20"/>
+      <c r="T340" s="5"/>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A341" s="4"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
+      <c r="D341" s="20"/>
+      <c r="E341" s="20"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="20"/>
+      <c r="H341" s="20"/>
+      <c r="I341" s="20"/>
+      <c r="J341" s="20"/>
+      <c r="K341" s="20"/>
+      <c r="L341" s="20"/>
+      <c r="M341" s="20"/>
+      <c r="N341" s="20"/>
+      <c r="O341" s="20"/>
+      <c r="P341" s="20"/>
+      <c r="Q341" s="20"/>
+      <c r="R341" s="20"/>
+      <c r="S341" s="20"/>
+      <c r="T341" s="5"/>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A342" s="4"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
+      <c r="D342" s="20"/>
+      <c r="E342" s="20"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="20"/>
+      <c r="H342" s="20"/>
+      <c r="I342" s="20"/>
+      <c r="J342" s="20"/>
+      <c r="K342" s="20"/>
+      <c r="L342" s="20"/>
+      <c r="M342" s="20"/>
+      <c r="N342" s="20"/>
+      <c r="O342" s="20"/>
+      <c r="P342" s="20"/>
+      <c r="Q342" s="20"/>
+      <c r="R342" s="20"/>
+      <c r="S342" s="20"/>
+      <c r="T342" s="5"/>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
+      <c r="D343" s="20"/>
+      <c r="E343" s="20"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="20"/>
+      <c r="H343" s="20"/>
+      <c r="I343" s="20"/>
+      <c r="J343" s="20"/>
+      <c r="K343" s="20"/>
+      <c r="L343" s="20"/>
+      <c r="M343" s="20"/>
+      <c r="N343" s="20"/>
+      <c r="O343" s="20"/>
+      <c r="P343" s="20"/>
+      <c r="Q343" s="20"/>
+      <c r="R343" s="20"/>
+      <c r="S343" s="20"/>
+      <c r="T343" s="5"/>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A344" s="4"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="20"/>
+      <c r="E344" s="20"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="20"/>
+      <c r="H344" s="20"/>
+      <c r="I344" s="20"/>
+      <c r="J344" s="20"/>
+      <c r="K344" s="20"/>
+      <c r="L344" s="20"/>
+      <c r="M344" s="20"/>
+      <c r="N344" s="20"/>
+      <c r="O344" s="20"/>
+      <c r="P344" s="20"/>
+      <c r="Q344" s="20"/>
+      <c r="R344" s="20"/>
+      <c r="S344" s="20"/>
+      <c r="T344" s="5"/>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="20"/>
+      <c r="D345" s="20"/>
+      <c r="E345" s="20"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="20"/>
+      <c r="H345" s="20"/>
+      <c r="I345" s="20"/>
+      <c r="J345" s="20"/>
+      <c r="K345" s="20"/>
+      <c r="L345" s="20"/>
+      <c r="M345" s="20"/>
+      <c r="N345" s="20"/>
+      <c r="O345" s="20"/>
+      <c r="P345" s="20"/>
+      <c r="Q345" s="20"/>
+      <c r="R345" s="20"/>
+      <c r="S345" s="20"/>
+      <c r="T345" s="5"/>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A346" s="4"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="20"/>
+      <c r="D346" s="20"/>
+      <c r="E346" s="20"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="20"/>
+      <c r="H346" s="20"/>
+      <c r="I346" s="20"/>
+      <c r="J346" s="20"/>
+      <c r="K346" s="20"/>
+      <c r="L346" s="20"/>
+      <c r="M346" s="20"/>
+      <c r="N346" s="20"/>
+      <c r="O346" s="20"/>
+      <c r="P346" s="20"/>
+      <c r="Q346" s="20"/>
+      <c r="R346" s="20"/>
+      <c r="S346" s="20"/>
+      <c r="T346" s="5"/>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A347" s="4"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
+      <c r="D347" s="20"/>
+      <c r="E347" s="20"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="20"/>
+      <c r="H347" s="20"/>
+      <c r="I347" s="20"/>
+      <c r="J347" s="20"/>
+      <c r="K347" s="20"/>
+      <c r="L347" s="20"/>
+      <c r="M347" s="20"/>
+      <c r="N347" s="20"/>
+      <c r="O347" s="20"/>
+      <c r="P347" s="20"/>
+      <c r="Q347" s="20"/>
+      <c r="R347" s="20"/>
+      <c r="S347" s="20"/>
+      <c r="T347" s="5"/>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A348" s="4"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
+      <c r="D348" s="20"/>
+      <c r="E348" s="20"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="20"/>
+      <c r="H348" s="20"/>
+      <c r="I348" s="20"/>
+      <c r="J348" s="20"/>
+      <c r="K348" s="20"/>
+      <c r="L348" s="20"/>
+      <c r="M348" s="20"/>
+      <c r="N348" s="20"/>
+      <c r="O348" s="20"/>
+      <c r="P348" s="20"/>
+      <c r="Q348" s="20"/>
+      <c r="R348" s="20"/>
+      <c r="S348" s="20"/>
+      <c r="T348" s="5"/>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A349" s="4"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
+      <c r="D349" s="20"/>
+      <c r="E349" s="20"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="20"/>
+      <c r="H349" s="20"/>
+      <c r="I349" s="20"/>
+      <c r="J349" s="20"/>
+      <c r="K349" s="20"/>
+      <c r="L349" s="20"/>
+      <c r="M349" s="20"/>
+      <c r="N349" s="20"/>
+      <c r="O349" s="20"/>
+      <c r="P349" s="20"/>
+      <c r="Q349" s="20"/>
+      <c r="R349" s="20"/>
+      <c r="S349" s="20"/>
+      <c r="T349" s="5"/>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A350" s="4"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
+      <c r="D350" s="20"/>
+      <c r="E350" s="20"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="20"/>
+      <c r="H350" s="20"/>
+      <c r="I350" s="20"/>
+      <c r="J350" s="20"/>
+      <c r="K350" s="20"/>
+      <c r="L350" s="20"/>
+      <c r="M350" s="20"/>
+      <c r="N350" s="20"/>
+      <c r="O350" s="20"/>
+      <c r="P350" s="20"/>
+      <c r="Q350" s="20"/>
+      <c r="R350" s="20"/>
+      <c r="S350" s="20"/>
+      <c r="T350" s="5"/>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="20"/>
+      <c r="D351" s="20"/>
+      <c r="E351" s="20"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="20"/>
+      <c r="H351" s="20"/>
+      <c r="I351" s="20"/>
+      <c r="J351" s="20"/>
+      <c r="K351" s="20"/>
+      <c r="L351" s="20"/>
+      <c r="M351" s="20"/>
+      <c r="N351" s="20"/>
+      <c r="O351" s="20"/>
+      <c r="P351" s="20"/>
+      <c r="Q351" s="20"/>
+      <c r="R351" s="20"/>
+      <c r="S351" s="20"/>
+      <c r="T351" s="5"/>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
+      <c r="D352" s="20"/>
+      <c r="E352" s="20"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="20"/>
+      <c r="H352" s="20"/>
+      <c r="I352" s="20"/>
+      <c r="J352" s="20"/>
+      <c r="K352" s="20"/>
+      <c r="L352" s="20"/>
+      <c r="M352" s="20"/>
+      <c r="N352" s="20"/>
+      <c r="O352" s="20"/>
+      <c r="P352" s="20"/>
+      <c r="Q352" s="20"/>
+      <c r="R352" s="20"/>
+      <c r="S352" s="20"/>
+      <c r="T352" s="5"/>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A353" s="4"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
+      <c r="D353" s="20"/>
+      <c r="E353" s="20"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="20"/>
+      <c r="H353" s="20"/>
+      <c r="I353" s="20"/>
+      <c r="J353" s="20"/>
+      <c r="K353" s="20"/>
+      <c r="L353" s="20"/>
+      <c r="M353" s="20"/>
+      <c r="N353" s="20"/>
+      <c r="O353" s="20"/>
+      <c r="P353" s="20"/>
+      <c r="Q353" s="20"/>
+      <c r="R353" s="20"/>
+      <c r="S353" s="20"/>
+      <c r="T353" s="5"/>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A354" s="4"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
+      <c r="D354" s="20"/>
+      <c r="E354" s="20"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="20"/>
+      <c r="H354" s="20"/>
+      <c r="I354" s="20"/>
+      <c r="J354" s="20"/>
+      <c r="K354" s="20"/>
+      <c r="L354" s="20"/>
+      <c r="M354" s="20"/>
+      <c r="N354" s="20"/>
+      <c r="O354" s="20"/>
+      <c r="P354" s="20"/>
+      <c r="Q354" s="20"/>
+      <c r="R354" s="20"/>
+      <c r="S354" s="20"/>
+      <c r="T354" s="5"/>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A355" s="4"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="20"/>
+      <c r="D355" s="20"/>
+      <c r="E355" s="20"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="20"/>
+      <c r="H355" s="20"/>
+      <c r="I355" s="20"/>
+      <c r="J355" s="20"/>
+      <c r="K355" s="20"/>
+      <c r="L355" s="20"/>
+      <c r="M355" s="20"/>
+      <c r="N355" s="20"/>
+      <c r="O355" s="20"/>
+      <c r="P355" s="20"/>
+      <c r="Q355" s="20"/>
+      <c r="R355" s="20"/>
+      <c r="S355" s="20"/>
+      <c r="T355" s="5"/>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A356" s="4"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
+      <c r="D356" s="20"/>
+      <c r="E356" s="20"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="20"/>
+      <c r="H356" s="20"/>
+      <c r="I356" s="20"/>
+      <c r="J356" s="20"/>
+      <c r="K356" s="20"/>
+      <c r="L356" s="20"/>
+      <c r="M356" s="20"/>
+      <c r="N356" s="20"/>
+      <c r="O356" s="20"/>
+      <c r="P356" s="20"/>
+      <c r="Q356" s="20"/>
+      <c r="R356" s="20"/>
+      <c r="S356" s="20"/>
+      <c r="T356" s="5"/>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A357" s="4"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="20"/>
+      <c r="D357" s="20"/>
+      <c r="E357" s="20"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="20"/>
+      <c r="H357" s="20"/>
+      <c r="I357" s="20"/>
+      <c r="J357" s="20"/>
+      <c r="K357" s="20"/>
+      <c r="L357" s="20"/>
+      <c r="M357" s="20"/>
+      <c r="N357" s="20"/>
+      <c r="O357" s="20"/>
+      <c r="P357" s="20"/>
+      <c r="Q357" s="20"/>
+      <c r="R357" s="20"/>
+      <c r="S357" s="20"/>
+      <c r="T357" s="5"/>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A358" s="4"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
+      <c r="D358" s="20"/>
+      <c r="E358" s="20"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="20"/>
+      <c r="H358" s="20"/>
+      <c r="I358" s="20"/>
+      <c r="J358" s="20"/>
+      <c r="K358" s="20"/>
+      <c r="L358" s="20"/>
+      <c r="M358" s="20"/>
+      <c r="N358" s="20"/>
+      <c r="O358" s="20"/>
+      <c r="P358" s="20"/>
+      <c r="Q358" s="20"/>
+      <c r="R358" s="20"/>
+      <c r="S358" s="20"/>
+      <c r="T358" s="5"/>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A359" s="4"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="20"/>
+      <c r="D359" s="20"/>
+      <c r="E359" s="20"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="20"/>
+      <c r="H359" s="20"/>
+      <c r="I359" s="20"/>
+      <c r="J359" s="20"/>
+      <c r="K359" s="20"/>
+      <c r="L359" s="20"/>
+      <c r="M359" s="20"/>
+      <c r="N359" s="20"/>
+      <c r="O359" s="20"/>
+      <c r="P359" s="20"/>
+      <c r="Q359" s="20"/>
+      <c r="R359" s="20"/>
+      <c r="S359" s="20"/>
+      <c r="T359" s="5"/>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A360" s="7"/>
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="D360" s="8"/>
+      <c r="E360" s="8"/>
+      <c r="F360" s="8"/>
+      <c r="G360" s="8"/>
+      <c r="H360" s="8"/>
+      <c r="I360" s="8"/>
+      <c r="J360" s="8"/>
+      <c r="K360" s="8"/>
+      <c r="L360" s="8"/>
+      <c r="M360" s="8"/>
+      <c r="N360" s="8"/>
+      <c r="O360" s="8"/>
+      <c r="P360" s="8"/>
+      <c r="Q360" s="8"/>
+      <c r="R360" s="8"/>
+      <c r="S360" s="8"/>
+      <c r="T360" s="9"/>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>